--- a/data/xlsx/KeyHelpData.xlsx
+++ b/data/xlsx/KeyHelpData.xlsx
@@ -3493,7 +3493,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>MID_KEYHELP_MENU_TOGGLE</t>
+          <t>选择/解除</t>
         </is>
       </c>
     </row>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>MID_Hub_Refresh_Entrust</t>
+          <t>委任</t>
         </is>
       </c>
     </row>
